--- a/PCB - Rack 2/Project Outputs for G2_LV/G2_LV.xlsx
+++ b/PCB - Rack 2/Project Outputs for G2_LV/G2_LV.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkilani\Documents\GitHub\G-2\PCB - Rack 2\Project Outputs for G2_LV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4830"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
   <si>
     <t>Designator</t>
   </si>
@@ -78,9 +83,6 @@
     <t>PDS1040L</t>
   </si>
   <si>
-    <t>PDS760-13</t>
-  </si>
-  <si>
     <t>D4_A, D4_B, D4_C, D4_D</t>
   </si>
   <si>
@@ -123,9 +125,6 @@
     <t>SMBJ</t>
   </si>
   <si>
-    <t>SMBJ48A</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -363,9 +362,6 @@
     <t>C4_A, C4_B, C4_C, C4_D</t>
   </si>
   <si>
-    <t>UMK325BJ106KM-T</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -481,6 +477,30 @@
   </si>
   <si>
     <t>500R</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>SBR15U50SP5-13</t>
+  </si>
+  <si>
+    <t>SMBJ36A</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>CRS1206-FX-1000ELF</t>
+  </si>
+  <si>
+    <t>GRM32ER61H106KA12L</t>
   </si>
 </sst>
 </file>
@@ -516,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -539,22 +559,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,17 +1029,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -889,9 +1059,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -906,9 +1088,20 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="11">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9">
+        <f>4*C2</f>
+        <v>16</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2-G2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -923,9 +1116,20 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="11">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G54" si="0">4*C3</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H54" si="1">F3-G3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -940,9 +1144,23 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -957,9 +1175,20 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="11">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -969,392 +1198,677 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="I8">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="11">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="11">
+        <v>100</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11">
+        <v>7</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="11">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1363,15 +1877,24 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1380,83 +1903,140 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="11">
+        <v>42</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="11">
+        <v>18</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="I34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -1465,32 +2045,52 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="3">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="11">
+        <v>100</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3">
         <v>6</v>
@@ -1499,117 +2099,194 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="F39" s="11">
+        <v>15</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="11">
+        <v>8</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="F43" s="11">
+        <v>21</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="3">
-        <v>4</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -1618,168 +2295,274 @@
         <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="F46" s="11">
+        <v>14</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="1"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="11">
+        <v>3</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="1"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="F53" s="11">
+        <v>38</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="3">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="3">
         <v>6</v>
@@ -1788,11 +2571,36 @@
         <v>7</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="1"/>
+        <v>-24</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H54">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB - Rack 2/Project Outputs for G2_LV/G2_LV.xlsx
+++ b/PCB - Rack 2/Project Outputs for G2_LV/G2_LV.xlsx
@@ -15,6 +15,7 @@
     <sheet name="G2_LV" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -618,17 +619,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -656,56 +647,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1031,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,18 +2526,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H54">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
